--- a/01_DATA/BB_plant_sugar_data.xlsx
+++ b/01_DATA/BB_plant_sugar_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simo/Library/CloudStorage/GoogleDrive-simo1996s@gmail.com/My Drive/ETH/Master Thesis/Bumblebee_2022/01_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9442A00-7400-354A-9AD5-AA19D807C8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1105C5-36B3-FA4D-A674-CD436EF971FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="500" windowWidth="28100" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sugar" sheetId="2" r:id="rId1"/>
@@ -815,10 +815,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1176,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1296,13 +1295,13 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>1800.78</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>87</v>
       </c>
     </row>
